--- a/Course_Requirements/Activity Logs&Task Summaries/Rick/Task SummaryWk5.xlsx
+++ b/Course_Requirements/Activity Logs&Task Summaries/Rick/Task SummaryWk5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\uni\2019\S2-FINAL!!\CSC3600-ICT Professional Project\A3Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alien Shard\Documents\GitHub\CSC3600-ICT-Professional-Project\Course_Requirements\Activity Logs&amp;Task Summaries\Rick\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9EAA8D8-741D-455A-A174-6A7795A7B65E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236723F9-00B9-4E99-8EF5-53DA05F8E18C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{2C90FF03-35F6-430D-80AA-644AEA31AD14}"/>
+    <workbookView xWindow="27180" yWindow="2445" windowWidth="23745" windowHeight="16455" xr2:uid="{2C90FF03-35F6-430D-80AA-644AEA31AD14}"/>
   </bookViews>
   <sheets>
     <sheet name="TASK SUMMARY SHEET" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Task Summary Sheet</t>
   </si>
@@ -54,9 +54,6 @@
     <t>New Estimate</t>
   </si>
   <si>
-    <t>Cumulative Total:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total: </t>
   </si>
   <si>
@@ -79,6 +76,30 @@
   </si>
   <si>
     <t>• "Stage" and "Task" should match those specified in the WBS in project plan</t>
+  </si>
+  <si>
+    <t>Cumulative Total: 100</t>
+  </si>
+  <si>
+    <t>Project Design and Specifics</t>
+  </si>
+  <si>
+    <t>Richard Dobson</t>
+  </si>
+  <si>
+    <t>Design Command Line UI</t>
+  </si>
+  <si>
+    <t>Analysis of Open source Metadata Libraries and Programs</t>
+  </si>
+  <si>
+    <t>Familiarisation with libraries (native and external)</t>
+  </si>
+  <si>
+    <t>Project Build</t>
+  </si>
+  <si>
+    <t>Learn Python Syntax</t>
   </si>
 </sst>
 </file>
@@ -121,15 +142,18 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
@@ -140,6 +164,7 @@
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -332,7 +357,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
@@ -669,12 +694,12 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="21" style="5" customWidth="1"/>
     <col min="2" max="2" width="45.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" style="5" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="5" customWidth="1"/>
@@ -686,11 +711,15 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
+      <c r="C1" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7"/>
+      <c r="E1" s="7">
+        <v>5</v>
+      </c>
       <c r="F1" s="1"/>
       <c r="H1" s="2"/>
     </row>
@@ -711,36 +740,68 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+    <row r="3" spans="1:8" s="8" customFormat="1" ht="27.75" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+    <row r="4" spans="1:8" s="8" customFormat="1" ht="27.75" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4</v>
+      </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+    <row r="5" spans="1:8" s="8" customFormat="1" ht="27.75" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3">
+        <v>6</v>
+      </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3">
+        <v>8</v>
+      </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -790,50 +851,50 @@
     </row>
     <row r="14" spans="1:8" s="8" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="18">
         <f>SUM(D3:D13)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
